--- a/Support Picklists.xlsx
+++ b/Support Picklists.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nates/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nates/dev/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997C8CA8-731F-474E-99F4-38DA9390999F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D982C0-AE2F-5642-A23D-6B4CAC7269F2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="460" windowWidth="28220" windowHeight="19520" xr2:uid="{F59D01D1-7154-B346-BD12-1A69642E9984}"/>
+    <workbookView xWindow="5380" yWindow="460" windowWidth="28220" windowHeight="19520" xr2:uid="{F59D01D1-7154-B346-BD12-1A69642E9984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -728,9 +728,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -741,6 +738,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1057,7 +1057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89B4D7C-7AC9-7A47-9374-E86FB2A57F7D}">
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1075,29 +1075,29 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
@@ -1115,277 +1115,277 @@
         <f>B4</f>
         <v>Device Issue</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="5" t="str">
+      <c r="E6" s="4" t="str">
         <f>D6</f>
         <v>Device Disconnected</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C8" s="5"/>
+      <c r="C8" s="4"/>
       <c r="D8" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D11" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C13" s="5"/>
+      <c r="C13" s="4"/>
       <c r="D13" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C14" s="5"/>
+      <c r="C14" s="4"/>
       <c r="D14" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="5"/>
+      <c r="C15" s="4"/>
       <c r="D15" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
       <c r="D18" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C22" s="5"/>
-      <c r="D22" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E24" s="6" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C25" s="5"/>
-      <c r="D25" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C27" s="5"/>
-      <c r="D27" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E27" s="6" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E28" s="6" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C29" s="5"/>
-      <c r="D29" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C30" s="5"/>
-      <c r="D30" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E30" s="6" t="s">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C31" s="5"/>
-      <c r="D31" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E31" s="6" t="s">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C32" s="5"/>
-      <c r="D32" s="8" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="4"/>
       <c r="F32" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="6" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6" t="s">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       <c r="B36" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C37" s="5"/>
+      <c r="C37" s="4"/>
       <c r="D37" t="s">
         <v>12</v>
       </c>
@@ -1408,7 +1408,7 @@
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C38" s="5"/>
+      <c r="C38" s="4"/>
       <c r="D38" t="s">
         <v>13</v>
       </c>
@@ -1417,31 +1417,31 @@
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C39" s="5"/>
-      <c r="E39" s="6" t="s">
+      <c r="C39" s="4"/>
+      <c r="E39" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C40" s="5"/>
-      <c r="E40" s="6" t="s">
+      <c r="C40" s="4"/>
+      <c r="E40" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C41" s="5"/>
-      <c r="E41" s="6" t="s">
+      <c r="C41" s="4"/>
+      <c r="E41" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C42" s="5"/>
-      <c r="E42" s="6" t="s">
+      <c r="C42" s="4"/>
+      <c r="E42" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C43" s="5"/>
+      <c r="C43" s="4"/>
       <c r="D43" t="s">
         <v>22</v>
       </c>
@@ -1451,34 +1451,34 @@
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C44" s="5"/>
+      <c r="C44" s="4"/>
       <c r="D44" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C45" s="5"/>
+      <c r="C45" s="4"/>
       <c r="D45" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C46" s="5"/>
+      <c r="C46" s="4"/>
       <c r="D46" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C47" s="5"/>
+      <c r="C47" s="4"/>
       <c r="D47" t="s">
         <v>15</v>
       </c>
@@ -1487,94 +1487,94 @@
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C48" s="5"/>
+      <c r="C48" s="4"/>
       <c r="D48" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B49" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C49" s="6" t="s">
+      <c r="B49" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="E49" s="4"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C50" s="5"/>
+      <c r="C50" s="4"/>
       <c r="D50" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="5" t="str">
+      <c r="E50" s="4" t="str">
         <f>D50</f>
         <v>Image Mode</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C51" s="5"/>
-      <c r="D51" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E51" s="6" t="s">
+      <c r="C51" s="4"/>
+      <c r="D51" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C52" s="5"/>
-      <c r="D52" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E52" s="6" t="s">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C53" s="5"/>
-      <c r="D53" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E53" s="6" t="s">
+      <c r="C53" s="4"/>
+      <c r="D53" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C54" s="5"/>
-      <c r="D54" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E54" s="6" t="s">
+      <c r="C54" s="4"/>
+      <c r="D54" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C55" s="5"/>
-      <c r="D55" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E55" s="6" t="s">
+      <c r="C55" s="4"/>
+      <c r="D55" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C56" s="5"/>
+      <c r="C56" s="4"/>
       <c r="D56" t="s">
         <v>20</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="7" t="s">
         <v>53</v>
       </c>
       <c r="F58" t="s">
@@ -1582,7 +1582,7 @@
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F59" t="s">
@@ -1590,7 +1590,7 @@
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F60" t="s">
@@ -1598,7 +1598,7 @@
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="7" t="s">
         <v>57</v>
       </c>
       <c r="F61" t="s">
@@ -1606,7 +1606,7 @@
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="7" t="s">
         <v>58</v>
       </c>
       <c r="F62" t="s">
@@ -1614,7 +1614,7 @@
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="7" t="s">
         <v>59</v>
       </c>
       <c r="F63" t="s">
@@ -1625,37 +1625,37 @@
       <c r="B64" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D65" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E65" s="6" t="s">
+      <c r="D65" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D66" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E66" s="6" t="s">
+      <c r="D66" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C68" s="5"/>
-      <c r="D68" s="5" t="s">
+      <c r="C68" s="4"/>
+      <c r="D68" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E68" t="str">
@@ -1667,7 +1667,7 @@
       <c r="D69" t="s">
         <v>38</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1675,32 +1675,32 @@
       <c r="D70" t="s">
         <v>39</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E71" s="5" t="str">
+      <c r="E71" s="4" t="str">
         <f>D71</f>
         <v>Configuration Issue</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D72" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E72" s="6" t="s">
+      <c r="D72" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D73" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E73" s="6" t="s">
+      <c r="D73" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1708,7 +1708,7 @@
       <c r="D74" t="s">
         <v>45</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E74" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1716,33 +1716,33 @@
       <c r="D75" t="s">
         <v>50</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E76" s="5"/>
+      <c r="E76" s="4"/>
       <c r="F76" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E77" s="5"/>
+      <c r="E77" s="4"/>
       <c r="F77" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="7" t="s">
         <v>100</v>
       </c>
       <c r="F78" t="s">
@@ -1750,7 +1750,7 @@
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="7" t="s">
         <v>102</v>
       </c>
       <c r="F79" t="s">
@@ -1758,7 +1758,7 @@
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F80" t="s">
@@ -1766,7 +1766,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F81" t="s">
@@ -1774,7 +1774,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="7" t="s">
         <v>105</v>
       </c>
       <c r="F82" t="s">
@@ -1782,7 +1782,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="7" t="s">
         <v>106</v>
       </c>
       <c r="F83" t="s">
@@ -1790,7 +1790,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F84" t="s">
@@ -1798,7 +1798,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F85" t="s">
@@ -1806,7 +1806,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="7" t="s">
         <v>108</v>
       </c>
       <c r="F86" t="s">
@@ -1814,7 +1814,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="7" t="s">
         <v>109</v>
       </c>
       <c r="F87" t="s">
@@ -1822,7 +1822,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="7" t="s">
         <v>110</v>
       </c>
       <c r="F88" t="s">
@@ -1830,7 +1830,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="7" t="s">
         <v>111</v>
       </c>
       <c r="F89" t="s">
@@ -1838,7 +1838,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="7" t="s">
         <v>112</v>
       </c>
       <c r="F90" t="s">
@@ -1849,16 +1849,16 @@
       <c r="A91" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F91" s="9"/>
+      <c r="F91" s="8"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>128</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F92" s="9"/>
+      <c r="F92" s="8"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D93" t="s">
@@ -1867,7 +1867,7 @@
       <c r="E93" t="s">
         <v>157</v>
       </c>
-      <c r="F93" s="9"/>
+      <c r="F93" s="8"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D94" t="s">
@@ -1910,10 +1910,10 @@
       </c>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E99" s="3" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       <c r="D104" t="s">
         <v>145</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="E104" s="3" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1974,18 +1974,18 @@
       </c>
     </row>
     <row r="107" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D107" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E107" s="6" t="s">
+      <c r="D107" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E107" s="5" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="108" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D108" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E108" s="6" t="s">
+      <c r="D108" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E108" s="5" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2047,10 +2047,10 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D116" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E116" s="6" t="s">
+      <c r="D116" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E116" s="5" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
       <c r="D117" t="s">
         <v>148</v>
       </c>
-      <c r="E117" s="4" t="s">
+      <c r="E117" s="3" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D119" s="8" t="s">
+      <c r="D119" s="7" t="s">
         <v>152</v>
       </c>
       <c r="F119" t="s">
@@ -2079,7 +2079,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D120" s="8" t="s">
+      <c r="D120" s="7" t="s">
         <v>146</v>
       </c>
       <c r="F120" t="s">
@@ -2087,7 +2087,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D121" s="8" t="s">
+      <c r="D121" s="7" t="s">
         <v>153</v>
       </c>
       <c r="F121" t="s">
@@ -2095,7 +2095,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D122" s="8" t="s">
+      <c r="D122" s="7" t="s">
         <v>150</v>
       </c>
       <c r="F122" t="s">
@@ -2103,7 +2103,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D123" s="8" t="s">
+      <c r="D123" s="7" t="s">
         <v>155</v>
       </c>
       <c r="F123" t="s">
@@ -2114,30 +2114,30 @@
       <c r="A124" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D124" s="5"/>
+      <c r="D124" s="4"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" t="s">
         <v>9</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D125" s="5"/>
+      <c r="D125" s="4"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
-      <c r="D126" s="5" t="s">
+      <c r="D126" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E126" s="4" t="s">
+      <c r="E126" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
-      <c r="D127" s="5" t="s">
+      <c r="D127" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E127" t="str">
@@ -2147,7 +2147,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
-      <c r="D128" s="5" t="s">
+      <c r="D128" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E128" t="str">
@@ -2157,62 +2157,62 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
-      <c r="D129" s="5" t="s">
+      <c r="D129" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E129" s="4" t="s">
+      <c r="E129" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
-      <c r="D130" s="5" t="s">
+      <c r="D130" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E130" s="4" t="s">
+      <c r="E130" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
-      <c r="D131" s="5" t="s">
+      <c r="D131" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E131" s="4" t="s">
+      <c r="E131" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
-      <c r="D132" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E132" s="6" t="s">
+      <c r="D132" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E132" s="5" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
-      <c r="D133" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E133" s="6" t="s">
+      <c r="D133" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E133" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
-      <c r="D134" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E134" s="6" t="s">
+      <c r="D134" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E134" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="8" t="s">
+      <c r="C135" s="4"/>
+      <c r="D135" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F135" t="s">
@@ -2221,108 +2221,108 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
-      <c r="D136" s="8" t="s">
+      <c r="D136" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
-      <c r="D137" s="8" t="s">
+      <c r="D137" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
-      <c r="D138" s="8" t="s">
+      <c r="D138" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
-      <c r="D139" s="8" t="s">
+      <c r="D139" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
-      <c r="D140" s="8" t="s">
+      <c r="D140" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
-      <c r="D141" s="8" t="s">
+      <c r="D141" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
-      <c r="D142" s="8" t="s">
+      <c r="D142" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
-      <c r="D143" s="8" t="s">
+      <c r="D143" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E143" s="5"/>
+      <c r="E143" s="4"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" t="s">
         <v>190</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C144" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D144" s="5"/>
+      <c r="D144" s="4"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E145" s="6" t="s">
+      <c r="C145" s="4"/>
+      <c r="D145" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E145" s="5" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E146" s="6" t="s">
+      <c r="C146" s="4"/>
+      <c r="D146" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E146" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E147" s="6" t="s">
+      <c r="C147" s="4"/>
+      <c r="D147" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E147" s="5" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
-      <c r="D148" s="8" t="s">
+      <c r="D148" s="7" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
-      <c r="D149" s="8" t="s">
+      <c r="D149" s="7" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
-      <c r="D150" s="8" t="s">
+      <c r="D150" s="7" t="s">
         <v>195</v>
       </c>
       <c r="F150" t="s">
@@ -2331,7 +2331,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
-      <c r="D151" s="8" t="s">
+      <c r="D151" s="7" t="s">
         <v>196</v>
       </c>
       <c r="F151" t="s">
@@ -2344,56 +2344,56 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C153" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B154" s="5"/>
-      <c r="D154" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E154" s="6" t="s">
+      <c r="B154" s="4"/>
+      <c r="D154" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E154" s="5" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D155" s="5" t="s">
+      <c r="D155" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E155" s="4" t="s">
+      <c r="E155" s="3" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D156" s="5" t="s">
+      <c r="D156" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E156" s="5" t="s">
+      <c r="E156" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D157" s="5" t="s">
+      <c r="D157" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E157" s="4" t="s">
+      <c r="E157" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C158" s="5"/>
+      <c r="C158" s="4"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="8" t="s">
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="7" t="s">
         <v>165</v>
       </c>
       <c r="F159" t="s">
@@ -2401,26 +2401,26 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="10" t="s">
+      <c r="A160" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B160" s="5"/>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="11"/>
-      <c r="B161" s="8" t="s">
+      <c r="A161" s="10"/>
+      <c r="B161" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="11"/>
-      <c r="B162" s="5"/>
-      <c r="C162" s="5"/>
-      <c r="D162" s="8" t="s">
+      <c r="A162" s="10"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="7" t="s">
         <v>138</v>
       </c>
       <c r="F162" t="s">
@@ -2428,10 +2428,10 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="11"/>
-      <c r="B163" s="5"/>
-      <c r="C163" s="5"/>
-      <c r="D163" s="8" t="s">
+      <c r="A163" s="10"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="7" t="s">
         <v>174</v>
       </c>
       <c r="F163" t="s">
@@ -2439,10 +2439,10 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="11"/>
-      <c r="B164" s="5"/>
-      <c r="C164" s="5"/>
-      <c r="D164" s="8" t="s">
+      <c r="A164" s="10"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="7" t="s">
         <v>139</v>
       </c>
       <c r="F164" t="s">
@@ -2450,10 +2450,10 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="11"/>
-      <c r="B165" s="5"/>
-      <c r="C165" s="5"/>
-      <c r="D165" s="8" t="s">
+      <c r="A165" s="10"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="7" t="s">
         <v>175</v>
       </c>
       <c r="F165" t="s">
@@ -2461,10 +2461,10 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="11"/>
-      <c r="B166" s="5"/>
-      <c r="C166" s="5"/>
-      <c r="D166" s="8" t="s">
+      <c r="A166" s="10"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="7" t="s">
         <v>176</v>
       </c>
       <c r="F166" t="s">
@@ -2472,10 +2472,10 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="11"/>
-      <c r="B167" s="5"/>
-      <c r="C167" s="5"/>
-      <c r="D167" s="8" t="s">
+      <c r="A167" s="10"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="7" t="s">
         <v>177</v>
       </c>
       <c r="F167" t="s">
@@ -2483,34 +2483,34 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="11"/>
-      <c r="B168" s="8" t="s">
+      <c r="A168" s="10"/>
+      <c r="B168" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="11"/>
-      <c r="B169" s="5"/>
-      <c r="C169" s="5"/>
-      <c r="D169" s="8" t="s">
+      <c r="A169" s="10"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="11"/>
-      <c r="B170" s="5"/>
-      <c r="C170" s="5"/>
-      <c r="D170" s="8" t="s">
+      <c r="A170" s="10"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="11"/>
-      <c r="B171" s="5"/>
-      <c r="C171" s="5"/>
-      <c r="D171" s="8" t="s">
+      <c r="A171" s="10"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="7" t="s">
         <v>186</v>
       </c>
       <c r="F171" t="s">
